--- a/data/trans_bre/P2C_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.10418632386536</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.254695841038512</v>
+        <v>3.254695841038509</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2422069658407367</v>
@@ -649,7 +649,7 @@
         <v>0.08118218949814263</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5595681281806899</v>
+        <v>0.5595681281806894</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2915938401052069</v>
+        <v>-0.4697901427658652</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.489405110939393</v>
+        <v>1.805315451714385</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.430125197248694</v>
+        <v>-5.13597998162515</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5057028025745715</v>
+        <v>-0.1664780276375973</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.004783433776295372</v>
+        <v>-0.01245346181033797</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0495066287765182</v>
+        <v>0.03677171998286695</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1085199640547959</v>
+        <v>-0.1192229716491436</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1003200543271811</v>
+        <v>-0.04173801443574456</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.76881032246888</v>
+        <v>16.76520049101658</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.94659220189461</v>
+        <v>18.45727380666174</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.56671020025269</v>
+        <v>11.21957696749526</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.606241718283232</v>
+        <v>6.560900019662228</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5454983176332482</v>
+        <v>0.546043094824636</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4556318199131271</v>
+        <v>0.4474855111752887</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.336917644186339</v>
+        <v>0.3313420763657377</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.531430643286876</v>
+        <v>1.637894588877439</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.358268094461145</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.841302899627291</v>
+        <v>8.841302899627287</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3376636182025106</v>
@@ -749,7 +749,7 @@
         <v>0.2758058916305001</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.7499782806134284</v>
+        <v>0.7499782806134281</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.297084977427387</v>
+        <v>2.589966961456476</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5822241512876131</v>
+        <v>-1.234014209846503</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.823951808743319</v>
+        <v>1.72243571754697</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.378770267128803</v>
+        <v>4.203074492761756</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0934969179622849</v>
+        <v>0.1091269416639286</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0127063694199853</v>
+        <v>-0.02450610701974846</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06022671316725788</v>
+        <v>0.05786960888783982</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.277504105696667</v>
+        <v>0.2499169085942225</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.40671212052013</v>
+        <v>13.10498477789802</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.35740546224308</v>
+        <v>11.28283866382735</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.52462662557855</v>
+        <v>12.97894655627672</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.3736040827299</v>
+        <v>13.22785790992972</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6714717402904805</v>
+        <v>0.6585703859975733</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2966040815697646</v>
+        <v>0.2693248743818578</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5749329694704336</v>
+        <v>0.5700690763400399</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.419860936356829</v>
+        <v>1.385266135818765</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.626785191988741</v>
+        <v>-6.225681201630897</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.305033349759289</v>
+        <v>-0.8376428006962708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.844908812427717</v>
+        <v>-3.028765093602468</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.11922352742453</v>
+        <v>-4.104675012014416</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1439542254910548</v>
+        <v>-0.1643110865678682</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.03905925595655102</v>
+        <v>-0.01749192966949239</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.09761858581526606</v>
+        <v>-0.1019455297711344</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2687923304884759</v>
+        <v>-0.2753055653400603</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.552049872994834</v>
+        <v>8.541143359063595</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.76134454870028</v>
+        <v>14.71824533399216</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.76765099499192</v>
+        <v>11.52961485769201</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.029407471597215</v>
+        <v>5.088939463953639</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3169530734786016</v>
+        <v>0.2763336927982097</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3251058901109959</v>
+        <v>0.3573727747477523</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4729029976194554</v>
+        <v>0.5075625320922448</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5143751143235311</v>
+        <v>0.5205011123603263</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>9.587947741074416</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6671653646085463</v>
+        <v>0.667165364608549</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.320262384711047</v>
@@ -949,7 +949,7 @@
         <v>0.3181403097039652</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.040721956545631</v>
+        <v>0.04072195654563116</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.795631854331896</v>
+        <v>2.261369010854775</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.390495966652114</v>
+        <v>-1.830616713821499</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.950619452531562</v>
+        <v>2.955845471858412</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.303407678649766</v>
+        <v>-6.142884170480069</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08373073192686306</v>
+        <v>0.06773198761581678</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02701557868302118</v>
+        <v>-0.03644082444413455</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0828650247381575</v>
+        <v>0.08765064916877603</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2849096932462723</v>
+        <v>-0.2737003925255727</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.30950767345226</v>
+        <v>15.60995532032971</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.11702829993594</v>
+        <v>13.35789441232111</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.3986646176178</v>
+        <v>16.18243966066267</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.950701904335953</v>
+        <v>5.924211017204256</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6522843529069012</v>
+        <v>0.6109097189058154</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2843791612592981</v>
+        <v>0.2921060111417172</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6209708896349876</v>
+        <v>0.6065987125623739</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4811118204822272</v>
+        <v>0.4777721379340815</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.367805352019339</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6412815670026981</v>
+        <v>0.6412815670026994</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3066733638036996</v>
@@ -1049,7 +1049,7 @@
         <v>0.1023475595384158</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.05676641378335991</v>
+        <v>0.05676641378336003</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4900429736442831</v>
+        <v>-1.698158778323871</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5456837579608723</v>
+        <v>-2.098676303901904</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.402941846320804</v>
+        <v>-5.702693065276945</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.64977708505997</v>
+        <v>-4.729185083860138</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.0275668150071499</v>
+        <v>-0.06210436101830091</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.01035083159646166</v>
+        <v>-0.04023812904860551</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1159639894150866</v>
+        <v>-0.1218345721826475</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3181611006440275</v>
+        <v>-0.3271568509312094</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.53142213710707</v>
+        <v>15.63446874241513</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.97711282270264</v>
+        <v>18.21207402843626</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.37164870327276</v>
+        <v>13.59467878439633</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.615668420562653</v>
+        <v>5.413158198947967</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.811184669218165</v>
+        <v>0.8013980579238307</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4568279814699393</v>
+        <v>0.4230562354227615</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3929205747062292</v>
+        <v>0.3594110272732899</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6577131217788081</v>
+        <v>0.6470093023023394</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>3.998040299912647</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.429825665377999</v>
+        <v>5.429825665377982</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1620427011694456</v>
@@ -1149,7 +1149,7 @@
         <v>0.1372452253612587</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2969503724639581</v>
+        <v>0.2969503724639572</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-13.4893784281965</v>
+        <v>-13.60334519225225</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.367163020930791</v>
+        <v>-1.97112122163423</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.273579140844872</v>
+        <v>-4.363516119651782</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.1491065184943589</v>
+        <v>-0.5271783774238655</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3375309318924121</v>
+        <v>-0.3509087057672628</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.06579651286426491</v>
+        <v>-0.03906685743795924</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1269047411298266</v>
+        <v>-0.1339586700938165</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.008325241377464</v>
+        <v>-0.03595232074163366</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.237693732377004</v>
+        <v>2.263659585062258</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.73529900922869</v>
+        <v>14.94801453346684</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.59526555050889</v>
+        <v>11.75582644411423</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.47160443369988</v>
+        <v>11.72500230094895</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07550477993634069</v>
+        <v>0.07750590734442814</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3613433855472938</v>
+        <v>0.363648983047751</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4612944535055082</v>
+        <v>0.4659293676093204</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7623849912708814</v>
+        <v>0.7673215008666576</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.733411416720418</v>
+        <v>4.079500723321789</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.149563248242712</v>
+        <v>-1.545528974298729</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.191155153256052</v>
+        <v>4.622808747428938</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2139295508580591</v>
+        <v>-0.2860131589813841</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1490156015629292</v>
+        <v>0.129287878807842</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.02462646280885107</v>
+        <v>-0.0329339217897499</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1360576540824971</v>
+        <v>0.1611785138073464</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.03734029369192666</v>
+        <v>-0.04728711123380443</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.74466643729748</v>
+        <v>15.87668337558362</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.98654867877713</v>
+        <v>9.187780289921701</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.14079450789368</v>
+        <v>15.17980226404037</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.274046617491076</v>
+        <v>4.928180936438473</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.597823876337796</v>
+        <v>0.6073869965308004</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2407423294392559</v>
+        <v>0.2220709192875198</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6228067466984158</v>
+        <v>0.6482416707525072</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.27359903115984</v>
+        <v>1.120242241708028</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>9.432845330080026</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8.42390436774286</v>
+        <v>8.423904367742857</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07104122528713505</v>
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.591543639284744</v>
+        <v>-2.343277190532521</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.931663447962502</v>
+        <v>3.476220704393413</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.56584892883982</v>
+        <v>4.072734597135673</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.952080314271707</v>
+        <v>3.85909866025488</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08395896286254854</v>
+        <v>-0.07585220462484767</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08677339338981732</v>
+        <v>0.07608495856455356</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.119538888172973</v>
+        <v>0.1070897579756049</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1465616558167274</v>
+        <v>0.1533593238717375</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.556582420376713</v>
+        <v>6.819968337878558</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>14.17081768911639</v>
+        <v>13.69410705749783</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14.13679694523778</v>
+        <v>14.35966492644238</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12.6487969403977</v>
+        <v>12.38353464570001</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2490866920793181</v>
+        <v>0.2588456663330367</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.36376991168143</v>
+        <v>0.3424793176419105</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4279432412388656</v>
+        <v>0.4245690288710671</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.610323737931768</v>
+        <v>0.602592290117489</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>7.445024231281694</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4.474245901179799</v>
+        <v>4.474245901179796</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1842532268147353</v>
@@ -1449,7 +1449,7 @@
         <v>0.237802234292573</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.3300746283986</v>
+        <v>0.3300746283985998</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.930079775047802</v>
+        <v>3.237156731000474</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.373262067950064</v>
+        <v>4.092237192775382</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.166596449984115</v>
+        <v>4.98572569698438</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.732263227854627</v>
+        <v>2.930253193656724</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.09676722206335499</v>
+        <v>0.1076680610895309</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09480684909724442</v>
+        <v>0.08812624241470325</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1583804842847127</v>
+        <v>0.1581032575544479</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.1898516803996753</v>
+        <v>0.2037822569716617</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.749600508390183</v>
+        <v>7.816951059135767</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.445836104269903</v>
+        <v>9.097688797970306</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.840080653847401</v>
+        <v>9.904749291990482</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.250077945423753</v>
+        <v>6.428613142043806</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2753526683338518</v>
+        <v>0.2806250065070418</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2172488588510332</v>
+        <v>0.208811029321718</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3264634531559131</v>
+        <v>0.3313976945863921</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.4870738974513178</v>
+        <v>0.5134386652258516</v>
       </c>
     </row>
     <row r="31">
